--- a/Project_1.xlsx
+++ b/Project_1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="16">
   <si>
     <t>File Size</t>
   </si>
@@ -47,12 +47,6 @@
     <t>100 MB</t>
   </si>
   <si>
-    <t>Total Time (micro seconds)</t>
-  </si>
-  <si>
-    <t>Total Data Loss (characters)</t>
-  </si>
-  <si>
     <t>Part 2 (Packet size = 10000 bytes) (Same room)</t>
   </si>
   <si>
@@ -60,6 +54,24 @@
   </si>
   <si>
     <t xml:space="preserve">Part 2 (Packet size = 10000 bytes) (Client with weak signal and server) </t>
+  </si>
+  <si>
+    <t>Total Time (nano seconds)</t>
+  </si>
+  <si>
+    <t>Total Data Loss (bytes received)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Time (nano seconds) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL </t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Percentage Data Received (bytes received)</t>
   </si>
 </sst>
 </file>
@@ -237,6 +249,5641 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Time (nanoseconds) for each Mode and File Size: Scenario 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$5:$B$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>File Size</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>File Size</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mode  0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Mode 1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mode 2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32604356600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136294401300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93152504400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33206647300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30816488600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109460427100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30060159600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149261979700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52010085000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="186106376"/>
+        <c:axId val="186105984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="186106376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="186105984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186105984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="186106376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Total Time (nanoseconds) for each Mode and File Size: Scenario 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$21:$B$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>File Size</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>File Size</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mode  0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Mode 1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mode 2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>33021274800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33774676700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10764556600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40172909000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21757067600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7148818400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16146499000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27459903300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87074689900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="186925744"/>
+        <c:axId val="186928880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="186925744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="186928880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186928880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="186925744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Total Time (nanoseconds) for each Mode and File Size: Scenario 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$36:$B$46</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>File Size</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>File Size</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mode  0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Mode 1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mode 2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>114671780400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5330276600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7413015800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8857241400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6992371600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23497955800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28515226900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="268690816"/>
+        <c:axId val="183593112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="268690816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="183593112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="183593112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="268690816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percentage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Data Received (bytes received) for each Mode and File Size: Scenario 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$54:$B$64</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>File Size</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>File Size</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mode  0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Mode 1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mode 2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$54:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>99.984989999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.647514000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.029551999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.600920000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.776643999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.893419999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.903919999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.900630000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.743819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="268792720"/>
+        <c:axId val="268793896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="268792720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="268793896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="268793896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="268792720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Percentage Data Received (bytes received) for each Mode and File Size: Scenario 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$70:$B$80</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>File Size</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>File Size</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mode  0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Mode 1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mode 2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$70:$C$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20.447279999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.109929999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1228119999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.797639999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.239752</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32493499999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2487500000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6796640000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.303763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="273106912"/>
+        <c:axId val="273106128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="273106912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273106128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="273106128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273106912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Percentage Data Received (bytes received) for each Mode and File Size: Scenario 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$85:$B$95</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>File Size</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>File Size</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>10 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>50 MB</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>100 MB</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Mode  0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Mode 1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Mode 2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$85:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>84.710450000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4994999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57988400000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.159968</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.54983</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32005600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17019800000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="273105736"/>
+        <c:axId val="273107304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="273105736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273107304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="273107304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273105736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1481137</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1490662</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -500,22 +6147,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -530,23 +6177,28 @@
       <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="C5">
+        <v>32604356600</v>
+      </c>
+      <c r="D5">
+        <v>9998499</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -554,14 +6206,24 @@
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>136294401300</v>
+      </c>
+      <c r="D6">
+        <v>49323757</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="5">
+        <v>93152504400</v>
+      </c>
+      <c r="D7" s="5">
+        <v>23029552</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -576,20 +6238,36 @@
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C9">
+        <v>33206647300</v>
+      </c>
+      <c r="D9">
+        <v>9560092</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C10">
+        <v>30816488600</v>
+      </c>
+      <c r="D10">
+        <v>8388322</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="5">
+        <v>109460427100</v>
+      </c>
+      <c r="D11" s="5">
+        <v>32893420</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -604,25 +6282,41 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
+      <c r="C13">
+        <v>30060159600</v>
+      </c>
+      <c r="D13">
+        <v>9990392</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>5</v>
       </c>
+      <c r="C14">
+        <v>149261979700</v>
+      </c>
+      <c r="D14">
+        <v>49950315</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="5">
+        <v>52010085000</v>
+      </c>
+      <c r="D15" s="5">
+        <v>10743819</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -637,23 +6331,28 @@
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="B20" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="C21">
+        <v>33021274800</v>
+      </c>
+      <c r="D21">
+        <v>2044728</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -661,14 +6360,24 @@
       <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C22">
+        <v>33774676700</v>
+      </c>
+      <c r="D22">
+        <v>8054965</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="5">
+        <v>10764556600</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1122812</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -683,20 +6392,36 @@
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C25">
+        <v>40172909000</v>
+      </c>
+      <c r="D25">
+        <v>1179764</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C26">
+        <v>21757067600</v>
+      </c>
+      <c r="D26">
+        <v>619876</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="C27" s="5">
+        <v>7148818400</v>
+      </c>
+      <c r="D27" s="5">
+        <v>324935</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -711,25 +6436,41 @@
       <c r="B29" t="s">
         <v>4</v>
       </c>
+      <c r="C29">
+        <v>16146499000</v>
+      </c>
+      <c r="D29">
+        <v>624875</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>5</v>
       </c>
+      <c r="C30">
+        <v>27459903300</v>
+      </c>
+      <c r="D30">
+        <v>839832</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="5">
+        <v>87074689900</v>
+      </c>
+      <c r="D31" s="5">
+        <v>6303763</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -744,23 +6485,28 @@
       <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="B35" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B36" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="C36">
+        <v>114671780400</v>
+      </c>
+      <c r="D36">
+        <v>8471045</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -768,14 +6514,24 @@
       <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
@@ -790,20 +6546,36 @@
       <c r="B40" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C40">
+        <v>5330276600</v>
+      </c>
+      <c r="D40">
+        <v>249950</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C41">
+        <v>7413015800</v>
+      </c>
+      <c r="D41">
+        <v>289942</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="C42" s="5">
+        <v>8857241400</v>
+      </c>
+      <c r="D42" s="5">
+        <v>159968</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -818,31 +6590,546 @@
       <c r="B44" t="s">
         <v>4</v>
       </c>
+      <c r="C44">
+        <v>6992371600</v>
+      </c>
+      <c r="D44">
+        <v>154983</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" t="s">
         <v>5</v>
       </c>
+      <c r="C45">
+        <v>23497955800</v>
+      </c>
+      <c r="D45">
+        <v>160028</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="C46" s="5">
+        <v>28515226900</v>
+      </c>
+      <c r="D46" s="5">
+        <v>170198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <f>D54/10000000*100</f>
+        <v>99.984989999999996</v>
+      </c>
+      <c r="D54">
+        <v>9998499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <f>D55/50000000*100</f>
+        <v>98.647514000000001</v>
+      </c>
+      <c r="D55">
+        <v>49323757</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5">
+        <f>D56/100000000*100</f>
+        <v>23.029551999999999</v>
+      </c>
+      <c r="D56" s="5">
+        <v>23029552</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C55:C64" si="0">D58/10000000*100</f>
+        <v>95.600920000000002</v>
+      </c>
+      <c r="D58">
+        <v>9560092</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <f>D59/50000000*100</f>
+        <v>16.776643999999997</v>
+      </c>
+      <c r="D59">
+        <v>8388322</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="5">
+        <f>D60/100000000*100</f>
+        <v>32.893419999999999</v>
+      </c>
+      <c r="D60" s="5">
+        <v>32893420</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>99.903919999999999</v>
+      </c>
+      <c r="D62">
+        <v>9990392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <f>D63/50000000*100</f>
+        <v>99.900630000000007</v>
+      </c>
+      <c r="D63">
+        <v>49950315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="5">
+        <f>D64/100000000*100</f>
+        <v>10.743819</v>
+      </c>
+      <c r="D64" s="5">
+        <v>10743819</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ref="C70:C80" si="1">D70/10000000*100</f>
+        <v>20.447279999999999</v>
+      </c>
+      <c r="D70">
+        <v>2044728</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <f>D71/50000000*100</f>
+        <v>16.109929999999999</v>
+      </c>
+      <c r="D71">
+        <v>8054965</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="5">
+        <f>D72/100000000*100</f>
+        <v>1.1228119999999999</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1122812</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <f>D74/10000000*100</f>
+        <v>11.797639999999999</v>
+      </c>
+      <c r="D74">
+        <v>1179764</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <f>D75/50000000*100</f>
+        <v>1.239752</v>
+      </c>
+      <c r="D75">
+        <v>619876</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="5">
+        <f>D76/100000000*100</f>
+        <v>0.32493499999999997</v>
+      </c>
+      <c r="D76" s="5">
+        <v>324935</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>6.2487500000000002</v>
+      </c>
+      <c r="D78">
+        <v>624875</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <f>D79/50000000*100</f>
+        <v>1.6796640000000003</v>
+      </c>
+      <c r="D79">
+        <v>839832</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <f>D80/100000000*100</f>
+        <v>6.303763</v>
+      </c>
+      <c r="D80" s="5">
+        <v>6303763</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="13"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="15"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ref="C85:C95" si="2">D85/10000000*100</f>
+        <v>84.710450000000009</v>
+      </c>
+      <c r="D85">
+        <v>8471045</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="2"/>
+        <v>2.4994999999999998</v>
+      </c>
+      <c r="D89">
+        <v>249950</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <f>D90/50000000*100</f>
+        <v>0.57988400000000007</v>
+      </c>
+      <c r="D90">
+        <v>289942</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <f>D91/100000000*100</f>
+        <v>0.159968</v>
+      </c>
+      <c r="D91" s="5">
+        <v>159968</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="2"/>
+        <v>1.54983</v>
+      </c>
+      <c r="D93">
+        <v>154983</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <f>D94/50000000*100</f>
+        <v>0.32005600000000001</v>
+      </c>
+      <c r="D94">
+        <v>160028</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <f>D95/100000000*100</f>
+        <v>0.17019800000000002</v>
+      </c>
+      <c r="D95" s="5">
+        <v>170198</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="24">
+    <mergeCell ref="A82:E83"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A67:E68"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A80"/>
     <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A51:E52"/>
+    <mergeCell ref="A54:A56"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:E34"/>
-    <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A2:E3"/>
@@ -850,5 +7137,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>